--- a/Test_Spreadsheet.xlsx
+++ b/Test_Spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Documents\GitHub\USE-CASES\Scraping_PDF_Houses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Documents\GitHub\uipath-scraping-PDF-to-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B441C8D-871E-4A06-8418-0044AF69FF7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E53156-FE34-4C8F-B833-AEF8F5F85263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,7 +362,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
